--- a/Mypaper/tables/3-1.android项目风险因素清单表.xlsx
+++ b/Mypaper/tables/3-1.android项目风险因素清单表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -233,14 +233,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>人力资源风险风险因素R</t>
+      <t>人力资源风险因素R</t>
     </r>
     <r>
       <rPr>
@@ -743,10 +736,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -771,7 +764,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,10 +836,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,15 +867,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,65 +884,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -899,21 +907,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,19 +939,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,163 +1071,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,6 +1174,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1192,21 +1214,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,13 +1242,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,24 +1271,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1286,10 +1279,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1298,37 +1291,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1337,94 +1327,97 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1807,7 +1800,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B18"/>
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/Mypaper/tables/3-1.android项目风险因素清单表.xlsx
+++ b/Mypaper/tables/3-1.android项目风险因素清单表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\paper\Mypaper\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9578EA-3D36-4D5E-9F29-3D5CD3176348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,14 +740,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,150 +761,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
@@ -929,202 +785,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1134,308 +810,180 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
+      <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dotted">
         <color auto="1"/>
       </left>
-      <right style="hair">
+      <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="dotted">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="hair">
+      <top style="dotted">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="dotted">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="dotted">
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="dotted">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1449,62 +997,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1791,217 +1322,216 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
     <col min="3" max="3" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
+    <row r="15" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
+    <row r="17" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
+    <row r="18" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="24" customHeight="1" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5" t="s">
+    <row r="24" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="24" customHeight="1"/>
+    <row r="25" spans="1:3" s="1" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A1:A24"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B9:B13"/>
@@ -2010,43 +1540,42 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A2:A24"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>